--- a/src/main/resources/excel/reward.xlsx
+++ b/src/main/resources/excel/reward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1CC6047-C640-4E1E-9FAA-BF22DB55735F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBABB2E-14A5-4235-B394-FC38A4DF9BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1476" windowWidth="10224" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,6 +44,10 @@
   </si>
   <si>
     <t>员工岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属部门</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -380,7 +384,7 @@
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,6 +399,9 @@
       </c>
       <c r="E1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/reward.xlsx
+++ b/src/main/resources/excel/reward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27602"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DBABB2E-14A5-4235-B394-FC38A4DF9BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9071C2-859B-4EB9-875C-9CED1BE6967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>员工姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -48,6 +44,10 @@
   </si>
   <si>
     <t>所属部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -375,9 +375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -386,22 +384,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/excel/reward.xlsx
+++ b/src/main/resources/excel/reward.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27616"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27715"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9071C2-859B-4EB9-875C-9CED1BE6967D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C51563-805B-4B5A-B45D-ED77C6B1E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>员工姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -48,6 +48,10 @@
   </si>
   <si>
     <t>工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,32 +377,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
     </row>

--- a/src/main/resources/excel/reward.xlsx
+++ b/src/main/resources/excel/reward.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\person\Desktop\performance-api\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C51563-805B-4B5A-B45D-ED77C6B1E463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66DC261F-A0C4-477F-97FA-26B2F52DCF20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2472" yWindow="624" windowWidth="10224" windowHeight="11484" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>特定绩效考核依据(文件名）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,6 +48,10 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定绩效考核依据(文件名.pdf）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -380,7 +380,7 @@
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -390,25 +390,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
